--- a/back/tst/perf_out_rest/POST_api_usuario_runs.xlsx
+++ b/back/tst/perf_out_rest/POST_api_usuario_runs.xlsx
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5008.126</v>
+        <v>23.148</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -494,13 +494,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5007.558</v>
+        <v>30.668</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -518,13 +518,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5005.978</v>
+        <v>31.241</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -542,13 +542,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5006.979</v>
+        <v>7.124</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -566,13 +566,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5006.025</v>
+        <v>23.748</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -590,13 +590,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5006.582</v>
+        <v>7.728</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -614,13 +614,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5006.323</v>
+        <v>6.592</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -638,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>5005.981</v>
+        <v>16.349</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -662,13 +662,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>5006.134</v>
+        <v>7.18</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -686,13 +686,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>5006.845</v>
+        <v>24.312</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>

--- a/back/tst/perf_out_rest/POST_api_usuario_runs.xlsx
+++ b/back/tst/perf_out_rest/POST_api_usuario_runs.xlsx
@@ -470,7 +470,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>23.148</v>
+        <v>108.857</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -494,7 +494,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>30.668</v>
+        <v>71.291</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -518,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.241</v>
+        <v>106.682</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -542,7 +542,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.124</v>
+        <v>114.792</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -566,7 +566,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23.748</v>
+        <v>125.394</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.728</v>
+        <v>131.118</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -614,7 +614,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6.592</v>
+        <v>104.881</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -638,7 +638,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.349</v>
+        <v>54.18</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -662,7 +662,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>7.18</v>
+        <v>8.382999999999999</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -686,7 +686,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.312</v>
+        <v>67.431</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
